--- a/src/resources/ulkeler.xlsx
+++ b/src/resources/ulkeler.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2EB60C-4A34-4EF5-8163-235FEBC4B297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB04D96B-CCBF-4225-87FD-E04C2EA83058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="577">
   <si>
     <t>Ülke (İngilizce)</t>
   </si>
@@ -1743,55 +1743,23 @@
     <t>Zimbabve</t>
   </si>
   <si>
-    <t>adfda</t>
-  </si>
-  <si>
-    <t>das</t>
-  </si>
-  <si>
-    <t>asd</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>fada</t>
-  </si>
-  <si>
-    <t>adfa</t>
-  </si>
-  <si>
-    <t>fa</t>
-  </si>
-  <si>
-    <t>fad</t>
-  </si>
-  <si>
-    <t>fadaf</t>
-  </si>
-  <si>
-    <t>dfdf</t>
-  </si>
-  <si>
-    <t>dfd</t>
-  </si>
-  <si>
-    <t>fdaf</t>
-  </si>
-  <si>
-    <t>adf</t>
-  </si>
-  <si>
-    <t>df</t>
-  </si>
-  <si>
-    <t>fadf</t>
+    <t>sdfs</t>
+  </si>
+  <si>
+    <t>sdfsd</t>
+  </si>
+  <si>
+    <t>dsff</t>
+  </si>
+  <si>
+    <t>Nufus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2212,18 +2180,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D191"/>
+  <dimension ref="A1:E191"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D130" sqref="D130"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" activeCellId="1" sqref="C4 D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="25.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="4" customWidth="true" width="25.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2236,8 +2204,11 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -2250,8 +2221,11 @@
       <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -2265,7 +2239,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -2275,11 +2249,8 @@
       <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
@@ -2293,7 +2264,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -2307,7 +2278,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
@@ -2321,7 +2292,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
@@ -2335,7 +2306,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
@@ -2349,7 +2320,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
@@ -2362,8 +2333,11 @@
       <c r="D10" s="8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E10">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>32</v>
       </c>
@@ -2377,7 +2351,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>36</v>
       </c>
@@ -2391,7 +2365,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>40</v>
       </c>
@@ -2405,7 +2379,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>43</v>
       </c>
@@ -2419,7 +2393,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>46</v>
       </c>
@@ -2432,8 +2406,11 @@
       <c r="D15" s="7" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E15">
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>50</v>
       </c>
@@ -4905,128 +4882,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A3:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>583</v>
-      </c>
-      <c r="C1" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>585</v>
-      </c>
-      <c r="D2" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>584</v>
-      </c>
-      <c r="C3" t="s">
-        <v>585</v>
-      </c>
-      <c r="F3" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>586</v>
-      </c>
+        <v>575</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>577</v>
-      </c>
-      <c r="E4" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>585</v>
-      </c>
-      <c r="B5" t="s">
-        <v>581</v>
-      </c>
-      <c r="F5" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>574</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>582</v>
-      </c>
-      <c r="C6" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D7" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>575</v>
-      </c>
-      <c r="B8" t="s">
-        <v>586</v>
-      </c>
-      <c r="C8" t="s">
-        <v>585</v>
-      </c>
-      <c r="E8" t="s">
-        <v>585</v>
-      </c>
-      <c r="F8" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D9" t="s">
-        <v>575</v>
-      </c>
-      <c r="E9" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>584</v>
-      </c>
-      <c r="C11" t="s">
-        <v>576</v>
-      </c>
-      <c r="E11" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D12" t="s">
-        <v>575</v>
-      </c>
-      <c r="F12" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>580</v>
       </c>
     </row>
   </sheetData>

--- a/src/resources/ulkeler.xlsx
+++ b/src/resources/ulkeler.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB04D96B-CCBF-4225-87FD-E04C2EA83058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599C27FA-5634-4783-8673-BFB2D6DFAE47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -1759,7 +1759,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2183,12 +2182,12 @@
   <dimension ref="A1:E191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" activeCellId="1" sqref="C4 D4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" customWidth="true" width="25.6640625" collapsed="true"/>
+    <col min="1" max="4" width="25.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2247,6 +2246,9 @@
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
     </row>
